--- a/items.xlsx
+++ b/items.xlsx
@@ -518,25 +518,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Biutte.co Pembersih Telinga Korek Kuping Ear Wax Picker 7 PCS - JC7 - </t>
+          <t xml:space="preserve">HUAMIANLI Alat Garuk Punggung Eagle Scratcher Stainless Steel - B01ER </t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Set pembersih telinga ini dapat memenuhi segala kebutuhan Anda dalam merawat dan membersihkan telinga Anda. Terbuat dari bahan stainless steel, pembersih kuping ini memiliki daya tahan yang baik serta tahan lama. Anda dapat dengan mudah memilih pembersih telinga yang mana yang cocok dengan telinga Anda.
+          <t>Alat Garuk Punggung ini sangat berguna saat Anda ingin menggaruk bagian tubuh yang tidak dapat dijangkau oleh tangan Anda. Alat penggaruk punggung ini dapat diperpanjang hingga 56 cm.
 Fitur
-7 Unit Pembersih Telinga
-Korek kuping ini hadir dengan 7 jenis kepala berbeda sesuai dengan kebutuhan. Anda dapat menyesuaikan dengan kebutuhan telinga Anda saat melakukan pembersihan.
-Bahan Stainless Steel
-Terbuat dari bahan stainless steel berkualitas yang tidak mudah rusak maupun berkarat, sehingga sangat cocok untuk penggunaan jangka panjang.
-Mudah Dibawa
-Hadir dengan kotak penyimpanan, sehingga sesaat setelah penggunaan Anda dapat menaruh kembali set pembersih kuping ini. Bentuknya yang kecil cocok untuk disimpan di dalam tas saat Anda beraktivitas.
+Bahan Berkualitas
+Terbuat dari stainless steel yang membuatnya kokoh dan tidak mudah berkarat. Di tambah terdapat bantalan pada bagian pegangannya yang membuat pengguna nyaman menggunakan alat ini.
+Teleskopik
+Alat garuk ini juga bisa diperpanjang hingga 56 cm untuk membantu Anda menggaruk bagian tubuh yang tidak bisa Anda jangkau dengan tangan. 
 Rincian yang Anda dapatkan untuk pembelian produk ini:
-7 x Biutte.co Pembersih Telinga Korek Kuping Ear Wax Picker - JC7
-1 x Sikat Kecil
-1 x Kotak Penyimpanan
+1 x HUAMIANLI Alat Garuk Punggung Eagle Scratcher Stainless Steel - B01ER
 Spesifikasi:
-Dimension : Panjang: 7 - 11.5 cm
+Dimension : Panjang Terlipat: 20.3 x 3.8 cm
+Panjang Maksimal: 55.8 x 3.8 cm
 Others : Material: Stainless Steel
 Jangan lupa follow toko kami yah... Selamat berbelanja :)</t>
         </is>
@@ -552,27 +549,27 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
-          <t>https://www.jakartanotebook.com/images/products/86/1020/43678/15/biutteco-pembersih-telinga-korek-kuping-ear-wax-picker-7-pcs-jc7-silver-167.jpg</t>
+          <t>https://upload.jaknot.com/2017/09/images/products/099122/original/alat-garuk-punggung-teleskopik-stainless-steel.jpg</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://www.jakartanotebook.com/images/products/86/1020/43678/15/biutteco-pembersih-telinga-korek-kuping-ear-wax-picker-7-pcs-jc7-silver-168.jpg</t>
+          <t>https://upload.jaknot.com/2017/09/images/products/168c59/original/alat-garuk-punggung-teleskopik-stainless-steel.jpg</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>https://www.jakartanotebook.com/images/products/86/1020/43678/15/biutteco-pembersih-telinga-korek-kuping-ear-wax-picker-7-pcs-jc7-silver-169.jpg</t>
+          <t>https://upload.jaknot.com/2017/09/images/products/b2165c/original/alat-garuk-punggung-teleskopik-stainless-steel.jpg</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>https://www.jakartanotebook.com/images/products/86/1020/43678/15/biutteco-pembersih-telinga-korek-kuping-ear-wax-picker-7-pcs-jc7-silver-170.jpg</t>
+          <t>https://upload.jaknot.com/2017/09/images/products/d91a91/original/alat-garuk-punggung-teleskopik-stainless-steel.jpg</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>https://www.jakartanotebook.com/images/products/86/1020/43678/15/biutteco-pembersih-telinga-korek-kuping-ear-wax-picker-7-pcs-jc7-silver-171.jpg</t>
+          <t>https://upload.jaknot.com/2017/09/images/products/3e5caf/original/alat-garuk-punggung-teleskopik-stainless-steel.jpg</t>
         </is>
       </c>
       <c r="M2" t="inlineStr"/>
@@ -580,7 +577,7 @@
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>7RHR1TSV</t>
+          <t>OMHR9GMC</t>
         </is>
       </c>
     </row>
